--- a/ui-testsuite/src/main/resources/TestData/ATR_Invalid_AMS_CheckMatchRegionFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Invalid_AMS_CheckMatchRegionFields.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="565">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -1735,6 +1735,24 @@
   </si>
   <si>
     <t>2141522628</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Quoted</t>
+  </si>
+  <si>
+    <t>Not Quoted</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1932,6 +1950,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2217,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:F42"/>
+    <sheetView tabSelected="1" topLeftCell="DB1" workbookViewId="0">
+      <selection activeCell="DI10" sqref="DI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2267,6 +2288,8 @@
     <col min="81" max="81" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2965,6 +2988,9 @@
         <v>164</v>
       </c>
       <c r="BS2" s="16"/>
+      <c r="BT2" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU2" s="20"/>
       <c r="BV2">
         <v>8</v>
@@ -3000,6 +3026,9 @@
         <v>246</v>
       </c>
       <c r="CG2" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH2" t="s">
         <v>246</v>
       </c>
       <c r="CI2" t="s">
@@ -3028,19 +3057,42 @@
       <c r="DA2" s="15"/>
       <c r="DB2" s="15"/>
       <c r="DC2" s="15"/>
-      <c r="DD2" s="16"/>
-      <c r="DE2" s="16"/>
-      <c r="DF2" s="15"/>
+      <c r="DD2" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE2" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF2" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG2" s="18"/>
       <c r="DH2" s="18"/>
       <c r="DI2" s="15"/>
       <c r="DJ2" s="15"/>
-      <c r="DK2" s="15"/>
+      <c r="DK2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL2" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM2" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN2" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP2" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ2" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS2" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU2" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH2" s="19"/>
       <c r="EW2" s="16"/>
@@ -3222,6 +3274,9 @@
         <v>164</v>
       </c>
       <c r="BS3" s="16"/>
+      <c r="BT3" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU3" s="20"/>
       <c r="BV3">
         <v>8</v>
@@ -3257,6 +3312,9 @@
         <v>246</v>
       </c>
       <c r="CG3" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH3" t="s">
         <v>246</v>
       </c>
       <c r="CI3" t="s">
@@ -3285,19 +3343,42 @@
       <c r="DA3" s="15"/>
       <c r="DB3" s="15"/>
       <c r="DC3" s="15"/>
-      <c r="DD3" s="16"/>
-      <c r="DE3" s="16"/>
-      <c r="DF3" s="15"/>
+      <c r="DD3" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE3" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF3" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG3" s="18"/>
       <c r="DH3" s="18"/>
       <c r="DI3" s="15"/>
       <c r="DJ3" s="15"/>
-      <c r="DK3" s="15"/>
+      <c r="DK3" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL3" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM3" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN3" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP3" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ3" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS3" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU3" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH3" s="19"/>
       <c r="EW3" s="16"/>
@@ -3477,6 +3558,9 @@
         <v>164</v>
       </c>
       <c r="BS4" s="16"/>
+      <c r="BT4" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU4" s="20"/>
       <c r="BV4">
         <v>10</v>
@@ -3512,6 +3596,9 @@
         <v>246</v>
       </c>
       <c r="CG4" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH4" t="s">
         <v>246</v>
       </c>
       <c r="CI4" t="s">
@@ -3540,19 +3627,42 @@
       <c r="DA4" s="15"/>
       <c r="DB4" s="15"/>
       <c r="DC4" s="15"/>
-      <c r="DD4" s="16"/>
-      <c r="DE4" s="16"/>
-      <c r="DF4" s="15"/>
+      <c r="DD4" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE4" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF4" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG4" s="18"/>
       <c r="DH4" s="18"/>
       <c r="DI4" s="15"/>
       <c r="DJ4" s="15"/>
-      <c r="DK4" s="15"/>
+      <c r="DK4" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL4" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM4" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN4" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP4" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ4" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS4" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU4" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH4" s="19"/>
       <c r="EW4" s="16"/>
@@ -3734,6 +3844,9 @@
         <v>164</v>
       </c>
       <c r="BS5" s="16"/>
+      <c r="BT5" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU5" s="20"/>
       <c r="BV5">
         <v>9</v>
@@ -3769,6 +3882,9 @@
         <v>246</v>
       </c>
       <c r="CG5" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH5" t="s">
         <v>246</v>
       </c>
       <c r="CI5" t="s">
@@ -3797,19 +3913,42 @@
       <c r="DA5" s="15"/>
       <c r="DB5" s="15"/>
       <c r="DC5" s="15"/>
-      <c r="DD5" s="16"/>
-      <c r="DE5" s="16"/>
-      <c r="DF5" s="15"/>
+      <c r="DD5" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE5" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF5" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG5" s="18"/>
       <c r="DH5" s="18"/>
       <c r="DI5" s="15"/>
       <c r="DJ5" s="15"/>
-      <c r="DK5" s="15"/>
+      <c r="DK5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL5" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM5" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN5" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP5" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ5" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS5" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU5" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH5" s="19"/>
       <c r="EW5" s="16"/>
@@ -3989,6 +4128,9 @@
         <v>164</v>
       </c>
       <c r="BS6" s="16"/>
+      <c r="BT6" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU6" s="20"/>
       <c r="BV6">
         <v>8</v>
@@ -4024,6 +4166,9 @@
         <v>246</v>
       </c>
       <c r="CG6" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH6" t="s">
         <v>246</v>
       </c>
       <c r="CI6" t="s">
@@ -4052,19 +4197,42 @@
       <c r="DA6" s="15"/>
       <c r="DB6" s="15"/>
       <c r="DC6" s="15"/>
-      <c r="DD6" s="16"/>
-      <c r="DE6" s="16"/>
-      <c r="DF6" s="15"/>
+      <c r="DD6" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE6" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF6" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG6" s="18"/>
       <c r="DH6" s="18"/>
       <c r="DI6" s="15"/>
       <c r="DJ6" s="15"/>
-      <c r="DK6" s="15"/>
+      <c r="DK6" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL6" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM6" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN6" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP6" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ6" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS6" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU6" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH6" s="19"/>
       <c r="EW6" s="16"/>
@@ -4244,6 +4412,9 @@
         <v>164</v>
       </c>
       <c r="BS7" s="16"/>
+      <c r="BT7" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU7" s="20"/>
       <c r="BV7">
         <v>8</v>
@@ -4279,6 +4450,9 @@
         <v>246</v>
       </c>
       <c r="CG7" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH7" t="s">
         <v>246</v>
       </c>
       <c r="CI7" t="s">
@@ -4307,19 +4481,42 @@
       <c r="DA7" s="15"/>
       <c r="DB7" s="15"/>
       <c r="DC7" s="15"/>
-      <c r="DD7" s="16"/>
-      <c r="DE7" s="16"/>
-      <c r="DF7" s="15"/>
+      <c r="DD7" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE7" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF7" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG7" s="18"/>
       <c r="DH7" s="18"/>
       <c r="DI7" s="15"/>
       <c r="DJ7" s="15"/>
-      <c r="DK7" s="15"/>
+      <c r="DK7" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL7" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM7" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN7" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP7" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ7" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS7" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU7" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH7" s="19"/>
       <c r="EW7" s="16"/>
@@ -4501,6 +4698,9 @@
         <v>164</v>
       </c>
       <c r="BS8" s="16"/>
+      <c r="BT8" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU8" s="20"/>
       <c r="BV8">
         <v>9</v>
@@ -4536,6 +4736,9 @@
         <v>246</v>
       </c>
       <c r="CG8" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH8" t="s">
         <v>246</v>
       </c>
       <c r="CI8" t="s">
@@ -4564,19 +4767,42 @@
       <c r="DA8" s="15"/>
       <c r="DB8" s="15"/>
       <c r="DC8" s="15"/>
-      <c r="DD8" s="16"/>
-      <c r="DE8" s="16"/>
-      <c r="DF8" s="15"/>
+      <c r="DD8" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE8" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF8" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG8" s="18"/>
       <c r="DH8" s="18"/>
       <c r="DI8" s="15"/>
       <c r="DJ8" s="15"/>
-      <c r="DK8" s="15"/>
+      <c r="DK8" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL8" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM8" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN8" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP8" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ8" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS8" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU8" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH8" s="19"/>
       <c r="EW8" s="16"/>
@@ -4758,6 +4984,9 @@
         <v>164</v>
       </c>
       <c r="BS9" s="16"/>
+      <c r="BT9" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU9" s="20"/>
       <c r="BV9">
         <v>9</v>
@@ -4793,6 +5022,9 @@
         <v>246</v>
       </c>
       <c r="CG9" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH9" t="s">
         <v>246</v>
       </c>
       <c r="CI9" t="s">
@@ -4821,19 +5053,42 @@
       <c r="DA9" s="15"/>
       <c r="DB9" s="15"/>
       <c r="DC9" s="15"/>
-      <c r="DD9" s="16"/>
-      <c r="DE9" s="16"/>
-      <c r="DF9" s="15"/>
+      <c r="DD9" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE9" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF9" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG9" s="18"/>
       <c r="DH9" s="18"/>
       <c r="DI9" s="15"/>
       <c r="DJ9" s="15"/>
-      <c r="DK9" s="15"/>
+      <c r="DK9" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL9" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM9" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN9" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP9" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ9" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS9" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU9" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH9" s="19"/>
       <c r="EW9" s="16"/>
@@ -5015,6 +5270,9 @@
         <v>164</v>
       </c>
       <c r="BS10" s="16"/>
+      <c r="BT10" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU10" s="20"/>
       <c r="BV10">
         <v>9</v>
@@ -5050,6 +5308,9 @@
         <v>246</v>
       </c>
       <c r="CG10" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH10" t="s">
         <v>246</v>
       </c>
       <c r="CI10" t="s">
@@ -5078,19 +5339,42 @@
       <c r="DA10" s="15"/>
       <c r="DB10" s="15"/>
       <c r="DC10" s="15"/>
-      <c r="DD10" s="16"/>
-      <c r="DE10" s="16"/>
-      <c r="DF10" s="15"/>
+      <c r="DD10" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE10" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF10" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG10" s="18"/>
       <c r="DH10" s="18"/>
       <c r="DI10" s="15"/>
       <c r="DJ10" s="15"/>
-      <c r="DK10" s="15"/>
+      <c r="DK10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL10" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM10" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN10" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP10" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ10" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS10" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU10" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH10" s="19"/>
       <c r="EW10" s="16"/>
@@ -5272,6 +5556,9 @@
         <v>164</v>
       </c>
       <c r="BS11" s="16"/>
+      <c r="BT11" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU11" s="20"/>
       <c r="BV11">
         <v>8</v>
@@ -5307,6 +5594,9 @@
         <v>246</v>
       </c>
       <c r="CG11" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH11" t="s">
         <v>246</v>
       </c>
       <c r="CI11" t="s">
@@ -5335,19 +5625,42 @@
       <c r="DA11" s="15"/>
       <c r="DB11" s="15"/>
       <c r="DC11" s="15"/>
-      <c r="DD11" s="16"/>
-      <c r="DE11" s="16"/>
-      <c r="DF11" s="15"/>
+      <c r="DD11" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE11" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF11" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG11" s="18"/>
       <c r="DH11" s="18"/>
       <c r="DI11" s="15"/>
       <c r="DJ11" s="15"/>
-      <c r="DK11" s="15"/>
+      <c r="DK11" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL11" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM11" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN11" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP11" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ11" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS11" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU11" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH11" s="19"/>
       <c r="EW11" s="16"/>
@@ -5527,6 +5840,9 @@
         <v>164</v>
       </c>
       <c r="BS12" s="16"/>
+      <c r="BT12" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU12" s="20"/>
       <c r="BV12">
         <v>8</v>
@@ -5562,6 +5878,9 @@
         <v>246</v>
       </c>
       <c r="CG12" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH12" t="s">
         <v>246</v>
       </c>
       <c r="CI12" t="s">
@@ -5590,19 +5909,42 @@
       <c r="DA12" s="15"/>
       <c r="DB12" s="15"/>
       <c r="DC12" s="15"/>
-      <c r="DD12" s="16"/>
-      <c r="DE12" s="16"/>
-      <c r="DF12" s="15"/>
+      <c r="DD12" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE12" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF12" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG12" s="18"/>
       <c r="DH12" s="18"/>
       <c r="DI12" s="15"/>
       <c r="DJ12" s="15"/>
-      <c r="DK12" s="15"/>
+      <c r="DK12" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL12" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM12" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN12" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP12" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ12" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS12" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU12" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH12" s="19"/>
       <c r="EW12" s="16"/>
@@ -5782,6 +6124,9 @@
         <v>164</v>
       </c>
       <c r="BS13" s="16"/>
+      <c r="BT13" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU13" s="20"/>
       <c r="BV13">
         <v>8</v>
@@ -5817,6 +6162,9 @@
         <v>246</v>
       </c>
       <c r="CG13" t="s">
+        <v>246</v>
+      </c>
+      <c r="CH13" t="s">
         <v>246</v>
       </c>
       <c r="CI13" t="s">
@@ -5845,19 +6193,42 @@
       <c r="DA13" s="15"/>
       <c r="DB13" s="15"/>
       <c r="DC13" s="15"/>
-      <c r="DD13" s="16"/>
-      <c r="DE13" s="16"/>
-      <c r="DF13" s="15"/>
+      <c r="DD13" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE13" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF13" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG13" s="18"/>
       <c r="DH13" s="18"/>
       <c r="DI13" s="15"/>
       <c r="DJ13" s="15"/>
-      <c r="DK13" s="15"/>
+      <c r="DK13" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL13" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM13" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN13" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP13" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ13" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS13" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU13" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH13" s="19"/>
       <c r="EW13" s="16"/>
@@ -6037,6 +6408,9 @@
         <v>164</v>
       </c>
       <c r="BS14" s="16"/>
+      <c r="BT14" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU14" s="20"/>
       <c r="BV14">
         <v>10</v>
@@ -6072,6 +6446,9 @@
         <v>343</v>
       </c>
       <c r="CG14" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH14" t="s">
         <v>343</v>
       </c>
       <c r="CI14" t="s">
@@ -6100,19 +6477,42 @@
       <c r="DA14" s="15"/>
       <c r="DB14" s="15"/>
       <c r="DC14" s="15"/>
-      <c r="DD14" s="16"/>
-      <c r="DE14" s="16"/>
-      <c r="DF14" s="15"/>
+      <c r="DD14" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE14" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF14" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG14" s="18"/>
       <c r="DH14" s="18"/>
       <c r="DI14" s="15"/>
       <c r="DJ14" s="15"/>
-      <c r="DK14" s="15"/>
+      <c r="DK14" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL14" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM14" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN14" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP14" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ14" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS14" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU14" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH14" s="19"/>
       <c r="EW14" s="16"/>
@@ -6296,6 +6696,9 @@
         <v>164</v>
       </c>
       <c r="BS15" s="16"/>
+      <c r="BT15" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU15" s="20"/>
       <c r="BV15">
         <v>10</v>
@@ -6331,6 +6734,9 @@
         <v>343</v>
       </c>
       <c r="CG15" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH15" t="s">
         <v>343</v>
       </c>
       <c r="CI15" t="s">
@@ -6359,19 +6765,42 @@
       <c r="DA15" s="15"/>
       <c r="DB15" s="15"/>
       <c r="DC15" s="15"/>
-      <c r="DD15" s="16"/>
-      <c r="DE15" s="16"/>
-      <c r="DF15" s="15"/>
+      <c r="DD15" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE15" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF15" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG15" s="18"/>
       <c r="DH15" s="18"/>
       <c r="DI15" s="15"/>
       <c r="DJ15" s="15"/>
-      <c r="DK15" s="15"/>
+      <c r="DK15" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL15" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM15" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN15" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP15" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ15" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS15" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU15" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH15" s="19"/>
       <c r="EW15" s="16"/>
@@ -6549,6 +6978,9 @@
         <v>164</v>
       </c>
       <c r="BS16" s="16"/>
+      <c r="BT16" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU16" s="20"/>
       <c r="BV16">
         <v>6</v>
@@ -6584,6 +7016,9 @@
         <v>343</v>
       </c>
       <c r="CG16" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH16" t="s">
         <v>343</v>
       </c>
       <c r="CI16" t="s">
@@ -6612,19 +7047,42 @@
       <c r="DA16" s="15"/>
       <c r="DB16" s="15"/>
       <c r="DC16" s="15"/>
-      <c r="DD16" s="16"/>
-      <c r="DE16" s="16"/>
-      <c r="DF16" s="15"/>
+      <c r="DD16" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE16" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF16" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG16" s="18"/>
       <c r="DH16" s="18"/>
       <c r="DI16" s="15"/>
       <c r="DJ16" s="15"/>
-      <c r="DK16" s="15"/>
+      <c r="DK16" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL16" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM16" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN16" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP16" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ16" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS16" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU16" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH16" s="19"/>
       <c r="EW16" s="16"/>
@@ -6808,6 +7266,9 @@
         <v>164</v>
       </c>
       <c r="BS17" s="16"/>
+      <c r="BT17" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU17" s="20"/>
       <c r="BV17">
         <v>10</v>
@@ -6843,6 +7304,9 @@
         <v>343</v>
       </c>
       <c r="CG17" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH17" t="s">
         <v>343</v>
       </c>
       <c r="CI17" t="s">
@@ -6871,19 +7335,42 @@
       <c r="DA17" s="15"/>
       <c r="DB17" s="15"/>
       <c r="DC17" s="15"/>
-      <c r="DD17" s="16"/>
-      <c r="DE17" s="16"/>
-      <c r="DF17" s="15"/>
+      <c r="DD17" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE17" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF17" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG17" s="18"/>
       <c r="DH17" s="18"/>
       <c r="DI17" s="15"/>
       <c r="DJ17" s="15"/>
-      <c r="DK17" s="15"/>
+      <c r="DK17" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL17" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM17" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN17" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP17" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ17" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS17" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU17" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH17" s="19"/>
       <c r="EW17" s="16"/>
@@ -7063,6 +7550,9 @@
         <v>164</v>
       </c>
       <c r="BS18" s="16"/>
+      <c r="BT18" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU18" s="20"/>
       <c r="BV18">
         <v>10</v>
@@ -7098,6 +7588,9 @@
         <v>343</v>
       </c>
       <c r="CG18" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH18" t="s">
         <v>343</v>
       </c>
       <c r="CI18" t="s">
@@ -7126,19 +7619,42 @@
       <c r="DA18" s="15"/>
       <c r="DB18" s="15"/>
       <c r="DC18" s="15"/>
-      <c r="DD18" s="16"/>
-      <c r="DE18" s="16"/>
-      <c r="DF18" s="15"/>
+      <c r="DD18" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE18" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF18" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG18" s="18"/>
       <c r="DH18" s="18"/>
       <c r="DI18" s="15"/>
       <c r="DJ18" s="15"/>
-      <c r="DK18" s="15"/>
+      <c r="DK18" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL18" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM18" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN18" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP18" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ18" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS18" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU18" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH18" s="19"/>
       <c r="EW18" s="16"/>
@@ -7320,6 +7836,9 @@
         <v>164</v>
       </c>
       <c r="BS19" s="16"/>
+      <c r="BT19" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU19" s="20"/>
       <c r="BV19">
         <v>10</v>
@@ -7355,6 +7874,9 @@
         <v>343</v>
       </c>
       <c r="CG19" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH19" t="s">
         <v>343</v>
       </c>
       <c r="CI19" t="s">
@@ -7383,19 +7905,42 @@
       <c r="DA19" s="15"/>
       <c r="DB19" s="15"/>
       <c r="DC19" s="15"/>
-      <c r="DD19" s="16"/>
-      <c r="DE19" s="16"/>
-      <c r="DF19" s="15"/>
+      <c r="DD19" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE19" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF19" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG19" s="18"/>
       <c r="DH19" s="18"/>
       <c r="DI19" s="15"/>
       <c r="DJ19" s="15"/>
-      <c r="DK19" s="15"/>
+      <c r="DK19" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL19" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM19" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN19" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP19" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ19" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS19" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU19" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH19" s="19"/>
       <c r="EW19" s="16"/>
@@ -7575,6 +8120,9 @@
         <v>164</v>
       </c>
       <c r="BS20" s="16"/>
+      <c r="BT20" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU20" s="20"/>
       <c r="BV20">
         <v>10</v>
@@ -7610,6 +8158,9 @@
         <v>343</v>
       </c>
       <c r="CG20" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH20" t="s">
         <v>343</v>
       </c>
       <c r="CI20" t="s">
@@ -7638,19 +8189,42 @@
       <c r="DA20" s="15"/>
       <c r="DB20" s="15"/>
       <c r="DC20" s="15"/>
-      <c r="DD20" s="16"/>
-      <c r="DE20" s="16"/>
-      <c r="DF20" s="15"/>
+      <c r="DD20" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE20" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF20" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG20" s="18"/>
       <c r="DH20" s="18"/>
       <c r="DI20" s="15"/>
       <c r="DJ20" s="15"/>
-      <c r="DK20" s="15"/>
+      <c r="DK20" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL20" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM20" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN20" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP20" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ20" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS20" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU20" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH20" s="19"/>
       <c r="EW20" s="16"/>
@@ -7830,6 +8404,9 @@
         <v>164</v>
       </c>
       <c r="BS21" s="16"/>
+      <c r="BT21" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU21" s="20"/>
       <c r="BV21">
         <v>9</v>
@@ -7865,6 +8442,9 @@
         <v>343</v>
       </c>
       <c r="CG21" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH21" t="s">
         <v>343</v>
       </c>
       <c r="CI21" t="s">
@@ -7893,19 +8473,42 @@
       <c r="DA21" s="15"/>
       <c r="DB21" s="15"/>
       <c r="DC21" s="15"/>
-      <c r="DD21" s="16"/>
-      <c r="DE21" s="16"/>
-      <c r="DF21" s="15"/>
+      <c r="DD21" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE21" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF21" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG21" s="18"/>
       <c r="DH21" s="18"/>
       <c r="DI21" s="15"/>
       <c r="DJ21" s="15"/>
-      <c r="DK21" s="15"/>
+      <c r="DK21" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL21" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM21" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN21" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP21" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ21" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS21" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU21" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH21" s="19"/>
       <c r="EW21" s="16"/>
@@ -8083,6 +8686,9 @@
         <v>164</v>
       </c>
       <c r="BS22" s="16"/>
+      <c r="BT22" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU22" s="20"/>
       <c r="BV22">
         <v>10</v>
@@ -8118,6 +8724,9 @@
         <v>343</v>
       </c>
       <c r="CG22" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH22" t="s">
         <v>343</v>
       </c>
       <c r="CI22" t="s">
@@ -8146,19 +8755,42 @@
       <c r="DA22" s="15"/>
       <c r="DB22" s="15"/>
       <c r="DC22" s="15"/>
-      <c r="DD22" s="16"/>
-      <c r="DE22" s="16"/>
-      <c r="DF22" s="15"/>
+      <c r="DD22" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE22" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF22" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG22" s="18"/>
       <c r="DH22" s="18"/>
       <c r="DI22" s="15"/>
       <c r="DJ22" s="15"/>
-      <c r="DK22" s="15"/>
+      <c r="DK22" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL22" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM22" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN22" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP22" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ22" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS22" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU22" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH22" s="19"/>
       <c r="EW22" s="16"/>
@@ -8342,6 +8974,9 @@
         <v>164</v>
       </c>
       <c r="BS23" s="16"/>
+      <c r="BT23" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU23" s="20"/>
       <c r="BV23">
         <v>9</v>
@@ -8377,6 +9012,9 @@
         <v>343</v>
       </c>
       <c r="CG23" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH23" t="s">
         <v>343</v>
       </c>
       <c r="CI23" t="s">
@@ -8405,19 +9043,42 @@
       <c r="DA23" s="15"/>
       <c r="DB23" s="15"/>
       <c r="DC23" s="15"/>
-      <c r="DD23" s="16"/>
-      <c r="DE23" s="16"/>
-      <c r="DF23" s="15"/>
+      <c r="DD23" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE23" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF23" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG23" s="18"/>
       <c r="DH23" s="18"/>
       <c r="DI23" s="15"/>
       <c r="DJ23" s="15"/>
-      <c r="DK23" s="15"/>
+      <c r="DK23" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL23" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM23" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN23" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP23" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ23" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS23" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU23" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH23" s="19"/>
       <c r="EW23" s="16"/>
@@ -8599,6 +9260,9 @@
         <v>164</v>
       </c>
       <c r="BS24" s="16"/>
+      <c r="BT24" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU24" s="20"/>
       <c r="BV24">
         <v>10</v>
@@ -8634,6 +9298,9 @@
         <v>343</v>
       </c>
       <c r="CG24" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH24" t="s">
         <v>343</v>
       </c>
       <c r="CI24" t="s">
@@ -8662,19 +9329,42 @@
       <c r="DA24" s="15"/>
       <c r="DB24" s="15"/>
       <c r="DC24" s="15"/>
-      <c r="DD24" s="16"/>
-      <c r="DE24" s="16"/>
-      <c r="DF24" s="15"/>
+      <c r="DD24" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE24" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF24" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG24" s="18"/>
       <c r="DH24" s="18"/>
       <c r="DI24" s="15"/>
       <c r="DJ24" s="15"/>
-      <c r="DK24" s="15"/>
+      <c r="DK24" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL24" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM24" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN24" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP24" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ24" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS24" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU24" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH24" s="19"/>
       <c r="EW24" s="16"/>
@@ -8857,6 +9547,9 @@
         <v>164</v>
       </c>
       <c r="BS25" s="22"/>
+      <c r="BT25" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU25" s="20"/>
       <c r="BV25">
         <v>10</v>
@@ -8892,6 +9585,9 @@
         <v>343</v>
       </c>
       <c r="CG25" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH25" t="s">
         <v>343</v>
       </c>
       <c r="CI25" t="s">
@@ -8920,19 +9616,42 @@
       <c r="DA25" s="15"/>
       <c r="DB25" s="15"/>
       <c r="DC25" s="15"/>
-      <c r="DD25" s="16"/>
-      <c r="DE25" s="16"/>
-      <c r="DF25" s="15"/>
+      <c r="DD25" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE25" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF25" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG25" s="18"/>
       <c r="DH25" s="18"/>
       <c r="DI25" s="15"/>
       <c r="DJ25" s="15"/>
-      <c r="DK25" s="15"/>
+      <c r="DK25" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL25" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM25" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN25" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP25" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ25" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS25" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU25" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH25" s="19"/>
       <c r="EW25" s="16"/>
@@ -9115,6 +9834,9 @@
         <v>164</v>
       </c>
       <c r="BS26" s="22"/>
+      <c r="BT26" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU26" s="20"/>
       <c r="BV26">
         <v>10</v>
@@ -9150,6 +9872,9 @@
         <v>343</v>
       </c>
       <c r="CG26" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH26" t="s">
         <v>343</v>
       </c>
       <c r="CI26" t="s">
@@ -9178,19 +9903,42 @@
       <c r="DA26" s="15"/>
       <c r="DB26" s="15"/>
       <c r="DC26" s="15"/>
-      <c r="DD26" s="16"/>
-      <c r="DE26" s="16"/>
-      <c r="DF26" s="15"/>
+      <c r="DD26" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE26" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF26" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG26" s="18"/>
       <c r="DH26" s="18"/>
       <c r="DI26" s="15"/>
       <c r="DJ26" s="15"/>
-      <c r="DK26" s="15"/>
+      <c r="DK26" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL26" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM26" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN26" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP26" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ26" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS26" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU26" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH26" s="19"/>
       <c r="EW26" s="16"/>
@@ -9373,6 +10121,9 @@
         <v>164</v>
       </c>
       <c r="BS27" s="22"/>
+      <c r="BT27" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU27" s="20"/>
       <c r="BV27">
         <v>10</v>
@@ -9408,6 +10159,9 @@
         <v>343</v>
       </c>
       <c r="CG27" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH27" t="s">
         <v>343</v>
       </c>
       <c r="CI27" t="s">
@@ -9436,19 +10190,42 @@
       <c r="DA27" s="15"/>
       <c r="DB27" s="15"/>
       <c r="DC27" s="15"/>
-      <c r="DD27" s="16"/>
-      <c r="DE27" s="16"/>
-      <c r="DF27" s="15"/>
+      <c r="DD27" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE27" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF27" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG27" s="18"/>
       <c r="DH27" s="18"/>
       <c r="DI27" s="15"/>
       <c r="DJ27" s="15"/>
-      <c r="DK27" s="15"/>
+      <c r="DK27" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL27" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM27" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN27" s="16" t="s">
         <v>247</v>
+      </c>
+      <c r="DP27" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ27" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS27" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU27" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH27" s="19"/>
       <c r="EW27" s="16"/>
@@ -9633,6 +10410,9 @@
       <c r="BS28" s="22">
         <v>42309</v>
       </c>
+      <c r="BT28" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU28" s="20"/>
       <c r="BV28">
         <v>11</v>
@@ -9668,6 +10448,9 @@
         <v>343</v>
       </c>
       <c r="CG28" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH28" t="s">
         <v>343</v>
       </c>
       <c r="CI28" t="s">
@@ -9696,19 +10479,42 @@
       <c r="DA28" s="15"/>
       <c r="DB28" s="15"/>
       <c r="DC28" s="15"/>
-      <c r="DD28" s="16"/>
-      <c r="DE28" s="16"/>
-      <c r="DF28" s="15"/>
+      <c r="DD28" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE28" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF28" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG28" s="18"/>
       <c r="DH28" s="18"/>
       <c r="DI28" s="15"/>
       <c r="DJ28" s="15"/>
-      <c r="DK28" s="15"/>
+      <c r="DK28" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL28" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM28" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN28" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP28" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ28" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS28" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU28" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH28" s="19"/>
       <c r="EW28" s="16"/>
@@ -9872,6 +10678,9 @@
         <v>164</v>
       </c>
       <c r="BS29" s="22"/>
+      <c r="BT29" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU29" s="20"/>
       <c r="BV29">
         <v>7</v>
@@ -9907,6 +10716,9 @@
         <v>343</v>
       </c>
       <c r="CG29" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH29" t="s">
         <v>343</v>
       </c>
       <c r="CI29" t="s">
@@ -9935,19 +10747,42 @@
       <c r="DA29" s="15"/>
       <c r="DB29" s="15"/>
       <c r="DC29" s="15"/>
-      <c r="DD29" s="16"/>
-      <c r="DE29" s="16"/>
-      <c r="DF29" s="15"/>
+      <c r="DD29" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE29" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF29" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG29" s="18"/>
       <c r="DH29" s="18"/>
       <c r="DI29" s="15"/>
       <c r="DJ29" s="15"/>
-      <c r="DK29" s="15"/>
+      <c r="DK29" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL29" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM29" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN29" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP29" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ29" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS29" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU29" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH29" s="19"/>
       <c r="EW29" s="16"/>
@@ -10113,6 +10948,9 @@
         <v>164</v>
       </c>
       <c r="BS30" s="22"/>
+      <c r="BT30" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU30" s="20"/>
       <c r="BV30">
         <v>7</v>
@@ -10148,6 +10986,9 @@
         <v>343</v>
       </c>
       <c r="CG30" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH30" t="s">
         <v>343</v>
       </c>
       <c r="CI30" t="s">
@@ -10176,19 +11017,42 @@
       <c r="DA30" s="15"/>
       <c r="DB30" s="15"/>
       <c r="DC30" s="15"/>
-      <c r="DD30" s="16"/>
-      <c r="DE30" s="16"/>
-      <c r="DF30" s="15"/>
+      <c r="DD30" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE30" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF30" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG30" s="18"/>
       <c r="DH30" s="18"/>
       <c r="DI30" s="15"/>
       <c r="DJ30" s="15"/>
-      <c r="DK30" s="15"/>
+      <c r="DK30" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL30" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM30" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN30" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP30" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ30" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS30" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU30" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH30" s="19"/>
       <c r="EW30" s="16"/>
@@ -10357,6 +11221,9 @@
         <v>164</v>
       </c>
       <c r="BS31" s="22"/>
+      <c r="BT31" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU31" s="20"/>
       <c r="BV31">
         <v>7</v>
@@ -10392,6 +11259,9 @@
         <v>343</v>
       </c>
       <c r="CG31" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH31" t="s">
         <v>343</v>
       </c>
       <c r="CI31" t="s">
@@ -10420,19 +11290,42 @@
       <c r="DA31" s="15"/>
       <c r="DB31" s="15"/>
       <c r="DC31" s="15"/>
-      <c r="DD31" s="16"/>
-      <c r="DE31" s="16"/>
-      <c r="DF31" s="15"/>
+      <c r="DD31" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE31" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF31" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG31" s="18"/>
       <c r="DH31" s="18"/>
       <c r="DI31" s="15"/>
       <c r="DJ31" s="15"/>
-      <c r="DK31" s="15"/>
+      <c r="DK31" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL31" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM31" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN31" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP31" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ31" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS31" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU31" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH31" s="19"/>
       <c r="EW31" s="16"/>
@@ -10604,6 +11497,9 @@
         <v>164</v>
       </c>
       <c r="BS32" s="22"/>
+      <c r="BT32" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU32" s="20"/>
       <c r="BV32">
         <v>7</v>
@@ -10639,6 +11535,9 @@
         <v>343</v>
       </c>
       <c r="CG32" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH32" t="s">
         <v>343</v>
       </c>
       <c r="CI32" t="s">
@@ -10667,19 +11566,42 @@
       <c r="DA32" s="15"/>
       <c r="DB32" s="15"/>
       <c r="DC32" s="15"/>
-      <c r="DD32" s="16"/>
-      <c r="DE32" s="16"/>
-      <c r="DF32" s="15"/>
+      <c r="DD32" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE32" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF32" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG32" s="18"/>
       <c r="DH32" s="18"/>
       <c r="DI32" s="15"/>
       <c r="DJ32" s="15"/>
-      <c r="DK32" s="15"/>
+      <c r="DK32" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL32" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM32" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN32" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP32" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ32" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS32" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU32" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH32" s="19"/>
       <c r="EW32" s="16"/>
@@ -10852,6 +11774,9 @@
         <v>164</v>
       </c>
       <c r="BS33" s="22"/>
+      <c r="BT33" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU33" s="20"/>
       <c r="BV33">
         <v>7</v>
@@ -10887,6 +11812,9 @@
         <v>343</v>
       </c>
       <c r="CG33" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH33" t="s">
         <v>343</v>
       </c>
       <c r="CI33" t="s">
@@ -10915,19 +11843,42 @@
       <c r="DA33" s="15"/>
       <c r="DB33" s="15"/>
       <c r="DC33" s="15"/>
-      <c r="DD33" s="16"/>
-      <c r="DE33" s="16"/>
-      <c r="DF33" s="15"/>
+      <c r="DD33" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE33" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF33" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG33" s="18"/>
       <c r="DH33" s="18"/>
       <c r="DI33" s="15"/>
       <c r="DJ33" s="15"/>
-      <c r="DK33" s="15"/>
+      <c r="DK33" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL33" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM33" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN33" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP33" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ33" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS33" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU33" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH33" s="19"/>
       <c r="EW33" s="16"/>
@@ -11097,6 +12048,9 @@
         <v>164</v>
       </c>
       <c r="BS34" s="22"/>
+      <c r="BT34" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU34" s="20"/>
       <c r="BV34">
         <v>7</v>
@@ -11132,6 +12086,9 @@
         <v>343</v>
       </c>
       <c r="CG34" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH34" t="s">
         <v>343</v>
       </c>
       <c r="CI34" t="s">
@@ -11160,19 +12117,42 @@
       <c r="DA34" s="15"/>
       <c r="DB34" s="15"/>
       <c r="DC34" s="15"/>
-      <c r="DD34" s="16"/>
-      <c r="DE34" s="16"/>
-      <c r="DF34" s="15"/>
+      <c r="DD34" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE34" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF34" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG34" s="18"/>
       <c r="DH34" s="18"/>
       <c r="DI34" s="15"/>
       <c r="DJ34" s="15"/>
-      <c r="DK34" s="15"/>
+      <c r="DK34" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL34" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM34" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN34" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP34" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ34" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS34" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU34" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH34" s="19"/>
       <c r="EW34" s="16"/>
@@ -11339,6 +12319,9 @@
         <v>164</v>
       </c>
       <c r="BS35" s="22"/>
+      <c r="BT35" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU35" s="20"/>
       <c r="BV35">
         <v>7</v>
@@ -11374,6 +12357,9 @@
         <v>343</v>
       </c>
       <c r="CG35" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH35" t="s">
         <v>343</v>
       </c>
       <c r="CI35" t="s">
@@ -11402,19 +12388,42 @@
       <c r="DA35" s="15"/>
       <c r="DB35" s="15"/>
       <c r="DC35" s="15"/>
-      <c r="DD35" s="16"/>
-      <c r="DE35" s="16"/>
-      <c r="DF35" s="15"/>
+      <c r="DD35" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE35" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF35" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG35" s="18"/>
       <c r="DH35" s="18"/>
       <c r="DI35" s="15"/>
       <c r="DJ35" s="15"/>
-      <c r="DK35" s="15"/>
+      <c r="DK35" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL35" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM35" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN35" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP35" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ35" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS35" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU35" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH35" s="19"/>
       <c r="EW35" s="16"/>
@@ -11595,6 +12604,9 @@
       <c r="BS36" s="22">
         <v>42309</v>
       </c>
+      <c r="BT36" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU36" s="20"/>
       <c r="BV36">
         <v>11</v>
@@ -11630,6 +12642,9 @@
         <v>343</v>
       </c>
       <c r="CG36" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH36" t="s">
         <v>343</v>
       </c>
       <c r="CI36" t="s">
@@ -11658,19 +12673,42 @@
       <c r="DA36" s="15"/>
       <c r="DB36" s="15"/>
       <c r="DC36" s="15"/>
-      <c r="DD36" s="16"/>
-      <c r="DE36" s="16"/>
-      <c r="DF36" s="15"/>
+      <c r="DD36" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE36" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF36" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG36" s="18"/>
       <c r="DH36" s="18"/>
       <c r="DI36" s="15"/>
       <c r="DJ36" s="15"/>
-      <c r="DK36" s="15"/>
+      <c r="DK36" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL36" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM36" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN36" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP36" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ36" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS36" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU36" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH36" s="19"/>
       <c r="EW36" s="16"/>
@@ -11849,6 +12887,9 @@
       <c r="BS37" s="22">
         <v>42309</v>
       </c>
+      <c r="BT37" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU37" s="20"/>
       <c r="BV37">
         <v>11</v>
@@ -11884,6 +12925,9 @@
         <v>343</v>
       </c>
       <c r="CG37" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH37" t="s">
         <v>343</v>
       </c>
       <c r="CI37" t="s">
@@ -11912,19 +12956,42 @@
       <c r="DA37" s="15"/>
       <c r="DB37" s="15"/>
       <c r="DC37" s="15"/>
-      <c r="DD37" s="16"/>
-      <c r="DE37" s="16"/>
-      <c r="DF37" s="15"/>
+      <c r="DD37" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE37" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF37" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG37" s="18"/>
       <c r="DH37" s="18"/>
       <c r="DI37" s="15"/>
       <c r="DJ37" s="15"/>
-      <c r="DK37" s="15"/>
+      <c r="DK37" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL37" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM37" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN37" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP37" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ37" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS37" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU37" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH37" s="19"/>
       <c r="EW37" s="16"/>
@@ -12104,6 +13171,9 @@
       <c r="BS38" s="22">
         <v>42309</v>
       </c>
+      <c r="BT38" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU38" s="20"/>
       <c r="BV38">
         <v>11</v>
@@ -12139,6 +13209,9 @@
         <v>343</v>
       </c>
       <c r="CG38" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH38" t="s">
         <v>343</v>
       </c>
       <c r="CI38" t="s">
@@ -12167,19 +13240,42 @@
       <c r="DA38" s="15"/>
       <c r="DB38" s="15"/>
       <c r="DC38" s="15"/>
-      <c r="DD38" s="16"/>
-      <c r="DE38" s="16"/>
-      <c r="DF38" s="15"/>
+      <c r="DD38" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE38" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF38" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG38" s="18"/>
       <c r="DH38" s="18"/>
       <c r="DI38" s="15"/>
       <c r="DJ38" s="15"/>
-      <c r="DK38" s="15"/>
+      <c r="DK38" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL38" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM38" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN38" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP38" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ38" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS38" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU38" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH38" s="19"/>
       <c r="EW38" s="16"/>
@@ -12359,6 +13455,9 @@
       <c r="BS39" s="22">
         <v>42309</v>
       </c>
+      <c r="BT39" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU39" s="20"/>
       <c r="BV39">
         <v>11</v>
@@ -12394,6 +13493,9 @@
         <v>343</v>
       </c>
       <c r="CG39" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH39" t="s">
         <v>343</v>
       </c>
       <c r="CI39" t="s">
@@ -12422,19 +13524,42 @@
       <c r="DA39" s="15"/>
       <c r="DB39" s="15"/>
       <c r="DC39" s="15"/>
-      <c r="DD39" s="16"/>
-      <c r="DE39" s="16"/>
-      <c r="DF39" s="15"/>
+      <c r="DD39" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE39" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF39" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG39" s="18"/>
       <c r="DH39" s="18"/>
       <c r="DI39" s="15"/>
       <c r="DJ39" s="15"/>
-      <c r="DK39" s="15"/>
+      <c r="DK39" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL39" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM39" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN39" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP39" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ39" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS39" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU39" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH39" s="19"/>
       <c r="EW39" s="16"/>
@@ -12612,6 +13737,9 @@
       <c r="BS40" s="22">
         <v>42309</v>
       </c>
+      <c r="BT40" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU40" s="20"/>
       <c r="BV40">
         <v>11</v>
@@ -12647,6 +13775,9 @@
         <v>343</v>
       </c>
       <c r="CG40" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH40" t="s">
         <v>343</v>
       </c>
       <c r="CI40" t="s">
@@ -12675,19 +13806,42 @@
       <c r="DA40" s="15"/>
       <c r="DB40" s="15"/>
       <c r="DC40" s="15"/>
-      <c r="DD40" s="16"/>
-      <c r="DE40" s="16"/>
-      <c r="DF40" s="15"/>
+      <c r="DD40" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE40" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF40" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG40" s="18"/>
       <c r="DH40" s="18"/>
       <c r="DI40" s="15"/>
       <c r="DJ40" s="15"/>
-      <c r="DK40" s="15"/>
+      <c r="DK40" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL40" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM40" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN40" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP40" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ40" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS40" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU40" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH40" s="19"/>
       <c r="EW40" s="16"/>
@@ -12865,6 +14019,9 @@
       <c r="BS41" s="22">
         <v>42309</v>
       </c>
+      <c r="BT41" s="14" t="s">
+        <v>564</v>
+      </c>
       <c r="BU41" s="20"/>
       <c r="BV41">
         <v>11</v>
@@ -12900,6 +14057,9 @@
         <v>343</v>
       </c>
       <c r="CG41" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH41" t="s">
         <v>343</v>
       </c>
       <c r="CI41" t="s">
@@ -12928,19 +14088,42 @@
       <c r="DA41" s="15"/>
       <c r="DB41" s="15"/>
       <c r="DC41" s="15"/>
-      <c r="DD41" s="16"/>
-      <c r="DE41" s="16"/>
-      <c r="DF41" s="15"/>
+      <c r="DD41" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE41" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF41" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG41" s="18"/>
       <c r="DH41" s="18"/>
       <c r="DI41" s="15"/>
       <c r="DJ41" s="15"/>
-      <c r="DK41" s="15"/>
+      <c r="DK41" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL41" s="28" t="s">
+        <v>561</v>
+      </c>
       <c r="DM41" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN41" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP41" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DQ41" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DS41" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="DU41" s="14" t="s">
+        <v>559</v>
       </c>
       <c r="EH41" s="19"/>
       <c r="EW41" s="16"/>
@@ -13118,6 +14301,9 @@
       <c r="BS42" s="22">
         <v>42309</v>
       </c>
+      <c r="BT42" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="BU42" s="20"/>
       <c r="BV42">
         <v>11</v>
@@ -13153,6 +14339,9 @@
         <v>343</v>
       </c>
       <c r="CG42" t="s">
+        <v>343</v>
+      </c>
+      <c r="CH42" t="s">
         <v>343</v>
       </c>
       <c r="CI42" t="s">
@@ -13181,19 +14370,42 @@
       <c r="DA42" s="15"/>
       <c r="DB42" s="15"/>
       <c r="DC42" s="15"/>
-      <c r="DD42" s="16"/>
-      <c r="DE42" s="16"/>
-      <c r="DF42" s="15"/>
+      <c r="DD42" s="16">
+        <v>42399</v>
+      </c>
+      <c r="DE42" s="16">
+        <v>42734</v>
+      </c>
+      <c r="DF42" s="15" t="s">
+        <v>559</v>
+      </c>
       <c r="DG42" s="18"/>
       <c r="DH42" s="18"/>
       <c r="DI42" s="15"/>
       <c r="DJ42" s="15"/>
-      <c r="DK42" s="15"/>
+      <c r="DK42" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL42" s="28" t="s">
+        <v>560</v>
+      </c>
       <c r="DM42" s="14" t="s">
         <v>221</v>
       </c>
       <c r="DN42" s="16" t="s">
         <v>377</v>
+      </c>
+      <c r="DP42" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DQ42" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DS42" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="DU42" s="14" t="s">
+        <v>562</v>
       </c>
       <c r="EH42" s="19"/>
       <c r="EW42" s="16"/>
